--- a/数据整理/stocks/A股/上证主板/600742-一汽富维.xlsx
+++ b/数据整理/stocks/A股/上证主板/600742-一汽富维.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>20.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>21.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.38</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.06</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>59.88</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7733</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>59.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -744,15 +834,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>87.94</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.26</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -772,15 +872,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>87.94</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.26</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600742-一汽富维.xlsx
+++ b/数据整理/stocks/A股/上证主板/600742-一汽富维.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600742-一汽富维.xlsx
+++ b/数据整理/stocks/A股/上证主板/600742-一汽富维.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600742-一汽富维.xlsx
+++ b/数据整理/stocks/A股/上证主板/600742-一汽富维.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1153,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,17 +1165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2728</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1200,14 +1243,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.37</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -1216,13 +1349,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600742-一汽富维.xlsx
+++ b/数据整理/stocks/A股/上证主板/600742-一汽富维.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,243 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8450</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>59.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6205</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005457</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -700,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -761,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.97</t>
+          <t>48.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7733</t>
+          <t>1.2728</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -789,112 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>217024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>招商安盈债券</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>24.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>20.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5777</t>
+          <t>0.2355</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,7 +953,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1215,26 +993,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>48.03</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>93.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2728</t>
+          <t>0.7733</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1243,36 +1021,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>217024</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商安盈债券</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.53</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.59</t>
+          <t>59.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2355</t>
+          <t>0.5777</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1286,96 +1140,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6205</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.51</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600742-一汽富维.xlsx
+++ b/数据整理/stocks/A股/上证主板/600742-一汽富维.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.51</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.37</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.51</v>
       </c>
     </row>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>48.03</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2728</t>
+          <t>0.0821</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>217024</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商安盈债券</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.53</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.59</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2355</t>
+          <t>0.0734</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -681,6 +698,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2728</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -926,7 +1075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1134,7 +1283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
